--- a/terminal-color-schemes.xlsx
+++ b/terminal-color-schemes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="91">
   <si>
     <t xml:space="preserve">DOS COLORS</t>
   </si>
@@ -202,55 +202,55 @@
     <t xml:space="preserve">Ubuntu</t>
   </si>
   <si>
-    <t xml:space="preserve">0/0/0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">187/0/0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0/187/0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">187/187/0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0/0/187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">187/0/187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0/187/187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">187/187/187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85/85/85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255/85/85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85/255/85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85/85/255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255/85/255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85/255/255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255/255/255</t>
+    <t xml:space="preserve">#bb0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#00bb00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#bbbb00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#0000b9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#bb00bb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#00bbbb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#bbbbbb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#4f5152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ff5555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#55ff55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ffff55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#5555ff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ff55ff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#55ffff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ffffff</t>
   </si>
   <si>
     <t xml:space="preserve">background color: 48/10/36</t>
   </si>
   <si>
-    <t xml:space="preserve">font color:255/255/255</t>
+    <t xml:space="preserve">font color: #ffffff</t>
   </si>
   <si>
     <t xml:space="preserve">Default</t>
@@ -290,9 +290,6 @@
   </si>
   <si>
     <t xml:space="preserve">background color: #000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">font color: #ffffff</t>
   </si>
   <si>
     <t xml:space="preserve">Custom</t>
@@ -310,6 +307,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -331,24 +329,28 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="5.6"/>
       <color rgb="FF2E3436"/>
       <name val="PibotoLt"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="59">
@@ -361,7 +363,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF0000B2"/>
+        <bgColor rgb="FF0000B6"/>
       </patternFill>
     </fill>
     <fill>
@@ -384,7 +386,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0000B2"/>
+        <fgColor rgb="FF0000B6"/>
         <bgColor rgb="FF0000CD"/>
       </patternFill>
     </fill>
@@ -408,7 +410,7 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FF414445"/>
+        <fgColor rgb="FF3F4344"/>
         <bgColor rgb="FF767676"/>
       </patternFill>
     </fill>
@@ -469,7 +471,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF68217A"/>
-        <bgColor rgb="FF414445"/>
+        <bgColor rgb="FF3F4344"/>
       </patternFill>
     </fill>
     <fill>
@@ -576,7 +578,7 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FF0000B2"/>
+        <fgColor rgb="FF0000B6"/>
         <bgColor rgb="FF0000CD"/>
       </patternFill>
     </fill>
@@ -655,7 +657,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0000CD"/>
-        <bgColor rgb="FF0000B2"/>
+        <bgColor rgb="FF0000B6"/>
       </patternFill>
     </fill>
     <fill>
@@ -749,7 +751,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -859,10 +861,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1039,7 +1037,7 @@
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FFA80000"/>
       <rgbColor rgb="FF13A10E"/>
-      <rgbColor rgb="FF0000B2"/>
+      <rgbColor rgb="FF0000B6"/>
       <rgbColor rgb="FF16C60C"/>
       <rgbColor rgb="FFA800A8"/>
       <rgbColor rgb="FF16825D"/>
@@ -1084,7 +1082,7 @@
       <rgbColor rgb="FFA85400"/>
       <rgbColor rgb="FFE74856"/>
       <rgbColor rgb="FF0037DA"/>
-      <rgbColor rgb="FF414445"/>
+      <rgbColor rgb="FF3F4344"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1097,8 +1095,8 @@
   </sheetPr>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M16" activeCellId="0" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1353,7 +1351,6 @@
       <c r="C10" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="28"/>
     </row>
     <row r="11" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="22" t="s">
@@ -1377,43 +1374,43 @@
       <c r="C14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="28" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="29" t="s">
         <v>44</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H14" s="30" t="s">
         <v>45</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="32" t="s">
+      <c r="J14" s="31" t="s">
         <v>46</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="33" t="s">
+      <c r="L14" s="32" t="s">
         <v>47</v>
       </c>
       <c r="M14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N14" s="34" t="s">
+      <c r="N14" s="33" t="s">
         <v>48</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P14" s="35" t="s">
+      <c r="P14" s="34" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1421,31 +1418,31 @@
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="35" t="s">
         <v>50</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="36" t="s">
         <v>51</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="37" t="s">
         <v>52</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="39" t="s">
+      <c r="H15" s="38" t="s">
         <v>53</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="40" t="s">
+      <c r="J15" s="39" t="s">
         <v>54</v>
       </c>
       <c r="K15" s="5" t="s">
@@ -1457,13 +1454,13 @@
       <c r="M15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="41" t="s">
+      <c r="N15" s="40" t="s">
         <v>55</v>
       </c>
       <c r="O15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P15" s="42" t="s">
+      <c r="P15" s="41" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1476,7 +1473,6 @@
       <c r="A17" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="28"/>
     </row>
     <row r="18" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1489,49 +1485,49 @@
         <v>1</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="43" t="s">
-        <v>61</v>
+      <c r="D20" s="42" t="s">
+        <v>60</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="44" t="s">
-        <v>62</v>
+      <c r="F20" s="43" t="s">
+        <v>61</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="45" t="s">
-        <v>63</v>
+      <c r="H20" s="44" t="s">
+        <v>62</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="46" t="s">
-        <v>64</v>
+      <c r="J20" s="45" t="s">
+        <v>63</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="47" t="s">
-        <v>65</v>
+      <c r="L20" s="46" t="s">
+        <v>64</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N20" s="48" t="s">
-        <v>66</v>
+      <c r="N20" s="47" t="s">
+        <v>65</v>
       </c>
       <c r="O20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P20" s="49" t="s">
-        <v>67</v>
+      <c r="P20" s="48" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1539,48 +1535,48 @@
         <v>17</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="50" t="s">
-        <v>69</v>
+      <c r="D21" s="49" t="s">
+        <v>68</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="51" t="s">
-        <v>70</v>
+      <c r="F21" s="50" t="s">
+        <v>69</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="52" t="s">
-        <v>40</v>
+      <c r="H21" s="51" t="s">
+        <v>70</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="53" t="s">
+      <c r="J21" s="52" t="s">
         <v>71</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L21" s="54" t="s">
+      <c r="L21" s="53" t="s">
         <v>72</v>
       </c>
       <c r="M21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N21" s="55" t="s">
+      <c r="N21" s="54" t="s">
         <v>73</v>
       </c>
       <c r="O21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P21" s="56" t="s">
+      <c r="P21" s="55" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1609,43 +1605,43 @@
       <c r="C27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="57" t="s">
+      <c r="D27" s="56" t="s">
         <v>78</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="58" t="s">
+      <c r="F27" s="57" t="s">
         <v>79</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="31" t="s">
+      <c r="H27" s="30" t="s">
         <v>45</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="59" t="s">
+      <c r="J27" s="58" t="s">
         <v>80</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L27" s="60" t="s">
+      <c r="L27" s="59" t="s">
         <v>81</v>
       </c>
       <c r="M27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N27" s="34" t="s">
+      <c r="N27" s="33" t="s">
         <v>48</v>
       </c>
       <c r="O27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P27" s="61" t="s">
+      <c r="P27" s="60" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1653,49 +1649,49 @@
       <c r="A28" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="61" t="s">
         <v>83</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="63" t="s">
+      <c r="D28" s="62" t="s">
         <v>84</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="64" t="s">
+      <c r="F28" s="63" t="s">
         <v>85</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H28" s="39" t="s">
+      <c r="H28" s="38" t="s">
         <v>53</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J28" s="65" t="s">
+      <c r="J28" s="64" t="s">
         <v>86</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L28" s="66" t="s">
+      <c r="L28" s="65" t="s">
         <v>87</v>
       </c>
       <c r="M28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N28" s="41" t="s">
+      <c r="N28" s="40" t="s">
         <v>55</v>
       </c>
       <c r="O28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P28" s="56" t="s">
+      <c r="P28" s="55" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1706,12 +1702,12 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="22" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/terminal-color-schemes.xlsx
+++ b/terminal-color-schemes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t xml:space="preserve">DOS COLORS</t>
   </si>
@@ -133,10 +133,13 @@
     <t xml:space="preserve">#16825d</t>
   </si>
   <si>
-    <t xml:space="preserve">#0e639c</t>
+    <t xml:space="preserve">#007acc</t>
   </si>
   <si>
     <t xml:space="preserve">#68217a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#0499fe</t>
   </si>
   <si>
     <t xml:space="preserve">font color: d4d4d4</t>
@@ -353,7 +356,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="59">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,7 +366,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF0000B6"/>
+        <bgColor rgb="FF0000C3"/>
       </patternFill>
     </fill>
     <fill>
@@ -386,8 +389,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0000B6"/>
-        <bgColor rgb="FF0000CD"/>
+        <fgColor rgb="FF0000C3"/>
+        <bgColor rgb="FF0037DA"/>
       </patternFill>
     </fill>
     <fill>
@@ -410,7 +413,7 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FF3F4344"/>
+        <fgColor rgb="FF3E4244"/>
         <bgColor rgb="FF767676"/>
       </patternFill>
     </fill>
@@ -459,19 +462,25 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF16825D"/>
-        <bgColor rgb="FF0E639C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0E639C"/>
-        <bgColor rgb="FF16825D"/>
+        <bgColor rgb="FF13A10E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF007ACC"/>
+        <bgColor rgb="FF0499FE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF68217A"/>
-        <bgColor rgb="FF3F4344"/>
+        <bgColor rgb="FF3E4244"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0499FE"/>
+        <bgColor rgb="FF007ACC"/>
       </patternFill>
     </fill>
     <fill>
@@ -495,7 +504,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0037DA"/>
-        <bgColor rgb="FF0E639C"/>
+        <bgColor rgb="FF0000C3"/>
       </patternFill>
     </fill>
     <fill>
@@ -577,12 +586,6 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="darkGray">
-        <fgColor rgb="FF0000B6"/>
-        <bgColor rgb="FF0000CD"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBB00BB"/>
         <bgColor rgb="FFB4009E"/>
@@ -652,12 +655,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00CD00"/>
         <bgColor rgb="FF16C60C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0000CD"/>
-        <bgColor rgb="FF0000B6"/>
       </patternFill>
     </fill>
     <fill>
@@ -751,7 +748,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -860,14 +857,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="21" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="21" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="22" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -900,19 +897,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="30" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="31" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="32" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="33" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="30" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="31" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="32" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="33" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -924,7 +921,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="36" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="36" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -932,7 +929,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="38" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="38" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -984,7 +981,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="51" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="51" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1000,19 +997,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="55" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="56" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="57" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="58" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="55" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="56" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="57" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1031,13 +1024,13 @@
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000CD"/>
+      <rgbColor rgb="FF0000C3"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FFA80000"/>
       <rgbColor rgb="FF13A10E"/>
-      <rgbColor rgb="FF0000B6"/>
+      <rgbColor rgb="FFBB00BB"/>
       <rgbColor rgb="FF16C60C"/>
       <rgbColor rgb="FFA800A8"/>
       <rgbColor rgb="FF16825D"/>
@@ -1049,9 +1042,9 @@
       <rgbColor rgb="FFEEEDF0"/>
       <rgbColor rgb="FF68217A"/>
       <rgbColor rgb="FFFC5454"/>
-      <rgbColor rgb="FF0E639C"/>
+      <rgbColor rgb="FF007ACC"/>
       <rgbColor rgb="FFCCCCCC"/>
-      <rgbColor rgb="FFBB00BB"/>
+      <rgbColor rgb="FF0499FE"/>
       <rgbColor rgb="FFCD00CD"/>
       <rgbColor rgb="FFFCFC54"/>
       <rgbColor rgb="FF54FCFC"/>
@@ -1082,7 +1075,7 @@
       <rgbColor rgb="FFA85400"/>
       <rgbColor rgb="FFE74856"/>
       <rgbColor rgb="FF0037DA"/>
-      <rgbColor rgb="FF3F4344"/>
+      <rgbColor rgb="FF3E4244"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1095,8 +1088,8 @@
   </sheetPr>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M16" activeCellId="0" sqref="M16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1322,8 +1315,8 @@
       <c r="I9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="18" t="s">
-        <v>26</v>
+      <c r="J9" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>27</v>
@@ -1346,22 +1339,22 @@
     </row>
     <row r="10" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="27" t="s">
         <v>40</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1374,76 +1367,76 @@
       <c r="C14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="28" t="s">
-        <v>43</v>
+      <c r="D14" s="29" t="s">
+        <v>44</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="29" t="s">
-        <v>44</v>
+      <c r="F14" s="30" t="s">
+        <v>45</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="30" t="s">
-        <v>45</v>
+      <c r="H14" s="31" t="s">
+        <v>46</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="31" t="s">
-        <v>46</v>
+      <c r="J14" s="32" t="s">
+        <v>47</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="32" t="s">
-        <v>47</v>
+      <c r="L14" s="33" t="s">
+        <v>48</v>
       </c>
       <c r="M14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N14" s="33" t="s">
-        <v>48</v>
+      <c r="N14" s="34" t="s">
+        <v>49</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P14" s="34" t="s">
-        <v>49</v>
+      <c r="P14" s="35" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="35" t="s">
-        <v>50</v>
+      <c r="B15" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="36" t="s">
-        <v>51</v>
+      <c r="D15" s="37" t="s">
+        <v>52</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="37" t="s">
-        <v>52</v>
+      <c r="F15" s="38" t="s">
+        <v>53</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="38" t="s">
-        <v>53</v>
+      <c r="H15" s="39" t="s">
+        <v>54</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="39" t="s">
-        <v>54</v>
+      <c r="J15" s="40" t="s">
+        <v>55</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>27</v>
@@ -1454,30 +1447,30 @@
       <c r="M15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="40" t="s">
-        <v>55</v>
+      <c r="N15" s="41" t="s">
+        <v>56</v>
       </c>
       <c r="O15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P15" s="41" t="s">
-        <v>56</v>
+      <c r="P15" s="42" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1490,44 +1483,44 @@
       <c r="C20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="42" t="s">
-        <v>60</v>
+      <c r="D20" s="43" t="s">
+        <v>61</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="43" t="s">
-        <v>61</v>
+      <c r="F20" s="44" t="s">
+        <v>62</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="44" t="s">
-        <v>62</v>
+      <c r="H20" s="45" t="s">
+        <v>63</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="45" t="s">
-        <v>63</v>
+      <c r="J20" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>13</v>
       </c>
       <c r="N20" s="47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O20" s="5" t="s">
         <v>15</v>
       </c>
       <c r="P20" s="48" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1535,64 +1528,64 @@
         <v>17</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="49" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F21" s="50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>23</v>
       </c>
       <c r="H21" s="51" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J21" s="52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>27</v>
       </c>
       <c r="L21" s="53" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M21" s="5" t="s">
         <v>29</v>
       </c>
       <c r="N21" s="54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O21" s="5" t="s">
         <v>31</v>
       </c>
       <c r="P21" s="55" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1606,108 +1599,108 @@
         <v>3</v>
       </c>
       <c r="D27" s="56" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F27" s="57" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="30" t="s">
-        <v>45</v>
+      <c r="H27" s="31" t="s">
+        <v>46</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="58" t="s">
-        <v>80</v>
+      <c r="J27" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L27" s="59" t="s">
-        <v>81</v>
+      <c r="L27" s="58" t="s">
+        <v>82</v>
       </c>
       <c r="M27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N27" s="33" t="s">
-        <v>48</v>
+      <c r="N27" s="34" t="s">
+        <v>49</v>
       </c>
       <c r="O27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P27" s="60" t="s">
-        <v>82</v>
+      <c r="P27" s="59" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="61" t="s">
-        <v>83</v>
+      <c r="B28" s="60" t="s">
+        <v>84</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="62" t="s">
-        <v>84</v>
+      <c r="D28" s="61" t="s">
+        <v>85</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="63" t="s">
-        <v>85</v>
+      <c r="F28" s="62" t="s">
+        <v>86</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H28" s="38" t="s">
-        <v>53</v>
+      <c r="H28" s="39" t="s">
+        <v>54</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J28" s="64" t="s">
-        <v>86</v>
+      <c r="J28" s="63" t="s">
+        <v>87</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L28" s="65" t="s">
-        <v>87</v>
+      <c r="L28" s="64" t="s">
+        <v>88</v>
       </c>
       <c r="M28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N28" s="40" t="s">
-        <v>55</v>
+      <c r="N28" s="41" t="s">
+        <v>56</v>
       </c>
       <c r="O28" s="5" t="s">
         <v>31</v>
       </c>
       <c r="P28" s="55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/terminal-color-schemes.xlsx
+++ b/terminal-color-schemes.xlsx
@@ -226,7 +226,7 @@
     <t xml:space="preserve">#bbbbbb</t>
   </si>
   <si>
-    <t xml:space="preserve">#4f5152</t>
+    <t xml:space="preserve">#555555</t>
   </si>
   <si>
     <t xml:space="preserve">#ff5555</t>
@@ -356,7 +356,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="58">
+  <fills count="59">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,7 +366,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF0000C3"/>
+        <bgColor rgb="FF3D4244"/>
       </patternFill>
     </fill>
     <fill>
@@ -389,8 +389,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0000C3"/>
-        <bgColor rgb="FF0037DA"/>
+        <fgColor rgb="FF000BD2"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
@@ -413,8 +413,8 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FF3E4244"/>
-        <bgColor rgb="FF767676"/>
+        <fgColor rgb="FF555555"/>
+        <bgColor rgb="FF3D4244"/>
       </patternFill>
     </fill>
     <fill>
@@ -474,7 +474,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF68217A"/>
-        <bgColor rgb="FF3E4244"/>
+        <bgColor rgb="FF3D4244"/>
       </patternFill>
     </fill>
     <fill>
@@ -502,9 +502,9 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0037DA"/>
-        <bgColor rgb="FF0000C3"/>
+      <patternFill patternType="mediumGray">
+        <fgColor rgb="FF000BD2"/>
+        <bgColor rgb="FF007ACC"/>
       </patternFill>
     </fill>
     <fill>
@@ -601,6 +601,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFBBBBBB"/>
         <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF555555"/>
+        <bgColor rgb="FF3D4244"/>
       </patternFill>
     </fill>
     <fill>
@@ -748,7 +754,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -949,19 +955,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="43" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="44" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="45" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="46" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="43" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="44" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="45" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="46" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -977,7 +983,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="50" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="50" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -997,15 +1007,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="55" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="56" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="57" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="55" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="56" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="57" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="58" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1024,7 +1038,7 @@
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000C3"/>
+      <rgbColor rgb="FF000BD2"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
@@ -1074,8 +1088,8 @@
       <rgbColor rgb="FFCD0000"/>
       <rgbColor rgb="FFA85400"/>
       <rgbColor rgb="FFE74856"/>
-      <rgbColor rgb="FF0037DA"/>
-      <rgbColor rgb="FF3E4244"/>
+      <rgbColor rgb="FF555555"/>
+      <rgbColor rgb="FF3D4244"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1088,8 +1102,8 @@
   </sheetPr>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1527,49 +1541,49 @@
       <c r="A21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="49" t="s">
         <v>68</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="50" t="s">
         <v>69</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" s="51" t="s">
         <v>70</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="51" t="s">
+      <c r="H21" s="52" t="s">
         <v>71</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="52" t="s">
+      <c r="J21" s="53" t="s">
         <v>72</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L21" s="53" t="s">
+      <c r="L21" s="54" t="s">
         <v>73</v>
       </c>
       <c r="M21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N21" s="54" t="s">
+      <c r="N21" s="55" t="s">
         <v>74</v>
       </c>
       <c r="O21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P21" s="55" t="s">
+      <c r="P21" s="56" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1582,6 +1596,7 @@
       <c r="A23" s="22" t="s">
         <v>77</v>
       </c>
+      <c r="C23" s="57"/>
     </row>
     <row r="26" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="22" t="s">
@@ -1598,13 +1613,13 @@
       <c r="C27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="56" t="s">
+      <c r="D27" s="58" t="s">
         <v>79</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="57" t="s">
+      <c r="F27" s="59" t="s">
         <v>80</v>
       </c>
       <c r="G27" s="5" t="s">
@@ -1622,7 +1637,7 @@
       <c r="K27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L27" s="58" t="s">
+      <c r="L27" s="60" t="s">
         <v>82</v>
       </c>
       <c r="M27" s="5" t="s">
@@ -1634,7 +1649,7 @@
       <c r="O27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P27" s="59" t="s">
+      <c r="P27" s="61" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1642,19 +1657,19 @@
       <c r="A28" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="62" t="s">
         <v>84</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="61" t="s">
+      <c r="D28" s="63" t="s">
         <v>85</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="62" t="s">
+      <c r="F28" s="64" t="s">
         <v>86</v>
       </c>
       <c r="G28" s="5" t="s">
@@ -1666,13 +1681,13 @@
       <c r="I28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J28" s="63" t="s">
+      <c r="J28" s="65" t="s">
         <v>87</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L28" s="64" t="s">
+      <c r="L28" s="66" t="s">
         <v>88</v>
       </c>
       <c r="M28" s="5" t="s">
@@ -1684,7 +1699,7 @@
       <c r="O28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P28" s="55" t="s">
+      <c r="P28" s="56" t="s">
         <v>89</v>
       </c>
     </row>

--- a/terminal-color-schemes.xlsx
+++ b/terminal-color-schemes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="94">
   <si>
     <t xml:space="preserve">DOS COLORS</t>
   </si>
@@ -139,7 +139,16 @@
     <t xml:space="preserve">#68217a</t>
   </si>
   <si>
-    <t xml:space="preserve">#0499fe</t>
+    <t xml:space="preserve">#cccccc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#da6771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#fff099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#88c0ef</t>
   </si>
   <si>
     <t xml:space="preserve">font color: d4d4d4</t>
@@ -170,9 +179,6 @@
   </si>
   <si>
     <t xml:space="preserve">#00CDCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#cccccc</t>
   </si>
   <si>
     <t xml:space="preserve">#767676</t>
@@ -356,7 +362,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="59">
+  <fills count="61">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,7 +372,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF3D4244"/>
+        <bgColor rgb="FF3F4243"/>
       </patternFill>
     </fill>
     <fill>
@@ -376,9 +382,9 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00A800"/>
-        <bgColor rgb="FF13A10E"/>
+      <patternFill patternType="darkGray">
+        <fgColor rgb="FF04A503"/>
+        <bgColor rgb="FF00BB00"/>
       </patternFill>
     </fill>
     <fill>
@@ -389,8 +395,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000BD2"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FF0016D1"/>
+        <bgColor rgb="FF68217A"/>
       </patternFill>
     </fill>
     <fill>
@@ -414,7 +420,7 @@
     <fill>
       <patternFill patternType="darkGray">
         <fgColor rgb="FF555555"/>
-        <bgColor rgb="FF3D4244"/>
+        <bgColor rgb="FF3F4243"/>
       </patternFill>
     </fill>
     <fill>
@@ -462,25 +468,43 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF16825D"/>
-        <bgColor rgb="FF13A10E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF007ACC"/>
-        <bgColor rgb="FF0499FE"/>
+        <bgColor rgb="FF00A8A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGray">
+        <fgColor rgb="FF0C79F5"/>
+        <bgColor rgb="FF00A8A8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF68217A"/>
-        <bgColor rgb="FF3D4244"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0499FE"/>
-        <bgColor rgb="FF007ACC"/>
+        <bgColor rgb="FF3F4243"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFBBBBBB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDA6771"/>
+        <bgColor rgb="FFFC5454"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF099"/>
+        <bgColor rgb="FFFCFC54"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF88C0EF"/>
+        <bgColor rgb="FFBBBBBB"/>
       </patternFill>
     </fill>
     <fill>
@@ -491,8 +515,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF13A10E"/>
-        <bgColor rgb="FF00A800"/>
+        <fgColor rgb="FF04A503"/>
+        <bgColor rgb="FF00BB00"/>
       </patternFill>
     </fill>
     <fill>
@@ -503,8 +527,8 @@
     </fill>
     <fill>
       <patternFill patternType="mediumGray">
-        <fgColor rgb="FF000BD2"/>
-        <bgColor rgb="FF007ACC"/>
+        <fgColor rgb="FF0016D1"/>
+        <bgColor rgb="FF0C79F5"/>
       </patternFill>
     </fill>
     <fill>
@@ -521,12 +545,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFBBBBBB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF767676"/>
         <bgColor rgb="FF7F7F7F"/>
       </patternFill>
@@ -550,8 +568,8 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3B78FF"/>
+      <patternFill patternType="mediumGray">
+        <fgColor rgb="FF0C79F5"/>
         <bgColor rgb="FF5C5CFF"/>
       </patternFill>
     </fill>
@@ -606,7 +624,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF555555"/>
-        <bgColor rgb="FF3D4244"/>
+        <bgColor rgb="FF3F4243"/>
       </patternFill>
     </fill>
     <fill>
@@ -754,7 +772,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -863,7 +881,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="21" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="21" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="22" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -871,18 +901,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="22" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="23" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="24" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="25" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -907,15 +925,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="31" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="32" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="33" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="31" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="32" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="33" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -923,7 +941,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="35" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="35" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -931,11 +949,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="37" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="38" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="37" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="38" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -959,15 +977,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="44" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="45" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="46" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="44" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="45" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="46" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -975,7 +993,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="48" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="48" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -983,19 +1001,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="50" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="51" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="52" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="51" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="52" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1007,11 +1021,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="55" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="56" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="55" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="56" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1019,7 +1033,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="58" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="58" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="59" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="60" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1038,14 +1060,14 @@
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF000BD2"/>
+      <rgbColor rgb="FF0016D1"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FFA80000"/>
-      <rgbColor rgb="FF13A10E"/>
+      <rgbColor rgb="FF04A503"/>
       <rgbColor rgb="FFBB00BB"/>
-      <rgbColor rgb="FF16C60C"/>
+      <rgbColor rgb="FF00BB00"/>
       <rgbColor rgb="FFA800A8"/>
       <rgbColor rgb="FF16825D"/>
       <rgbColor rgb="FFBBBBBB"/>
@@ -1055,41 +1077,41 @@
       <rgbColor rgb="FFFCFCFC"/>
       <rgbColor rgb="FFEEEDF0"/>
       <rgbColor rgb="FF68217A"/>
-      <rgbColor rgb="FFFC5454"/>
-      <rgbColor rgb="FF007ACC"/>
+      <rgbColor rgb="FFDA6771"/>
+      <rgbColor rgb="FF0C79F5"/>
       <rgbColor rgb="FFCCCCCC"/>
-      <rgbColor rgb="FF0499FE"/>
+      <rgbColor rgb="FF54FC54"/>
       <rgbColor rgb="FFCD00CD"/>
       <rgbColor rgb="FFFCFC54"/>
       <rgbColor rgb="FF54FCFC"/>
       <rgbColor rgb="FFB4009E"/>
       <rgbColor rgb="FFBB0000"/>
       <rgbColor rgb="FF00A8A8"/>
-      <rgbColor rgb="FF5555FF"/>
+      <rgbColor rgb="FF55FF55"/>
       <rgbColor rgb="FF00CDCD"/>
-      <rgbColor rgb="FF55FF55"/>
+      <rgbColor rgb="FF55FFFF"/>
       <rgbColor rgb="FFE5E5E5"/>
-      <rgbColor rgb="FFFFFF55"/>
-      <rgbColor rgb="FF55FFFF"/>
+      <rgbColor rgb="FFFFF099"/>
+      <rgbColor rgb="FF88C0EF"/>
       <rgbColor rgb="FFFF55FF"/>
       <rgbColor rgb="FFFC54FC"/>
-      <rgbColor rgb="FF54FC54"/>
-      <rgbColor rgb="FF3B78FF"/>
+      <rgbColor rgb="FFFFFF55"/>
+      <rgbColor rgb="FF5555FF"/>
       <rgbColor rgb="FF00BBBB"/>
       <rgbColor rgb="FFBBBB00"/>
       <rgbColor rgb="FFCDCD00"/>
-      <rgbColor rgb="FF00CD00"/>
+      <rgbColor rgb="FFFC5454"/>
       <rgbColor rgb="FFFF5555"/>
       <rgbColor rgb="FF767676"/>
       <rgbColor rgb="FFA8A8A8"/>
       <rgbColor rgb="FF5454FC"/>
-      <rgbColor rgb="FF00A800"/>
-      <rgbColor rgb="FF00BB00"/>
+      <rgbColor rgb="FF16C60C"/>
+      <rgbColor rgb="FF00CD00"/>
       <rgbColor rgb="FFCD0000"/>
       <rgbColor rgb="FFA85400"/>
       <rgbColor rgb="FFE74856"/>
       <rgbColor rgb="FF555555"/>
-      <rgbColor rgb="FF3D4244"/>
+      <rgbColor rgb="FF3F4243"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1102,8 +1124,8 @@
   </sheetPr>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1297,8 +1319,8 @@
       <c r="O8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P8" s="13" t="s">
-        <v>16</v>
+      <c r="P8" s="27" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1311,8 +1333,8 @@
       <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>20</v>
+      <c r="D9" s="28" t="s">
+        <v>40</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>21</v>
@@ -1323,14 +1345,14 @@
       <c r="G9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="17" t="s">
-        <v>24</v>
+      <c r="H9" s="29" t="s">
+        <v>41</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="27" t="s">
-        <v>39</v>
+      <c r="J9" s="30" t="s">
+        <v>42</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>27</v>
@@ -1353,22 +1375,22 @@
     </row>
     <row r="10" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="22" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1381,76 +1403,76 @@
       <c r="C14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="29" t="s">
-        <v>44</v>
+      <c r="D14" s="32" t="s">
+        <v>47</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="30" t="s">
-        <v>45</v>
+      <c r="F14" s="33" t="s">
+        <v>48</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="31" t="s">
-        <v>46</v>
+      <c r="H14" s="34" t="s">
+        <v>49</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="32" t="s">
-        <v>47</v>
+      <c r="J14" s="35" t="s">
+        <v>50</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="33" t="s">
-        <v>48</v>
+      <c r="L14" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="M14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N14" s="34" t="s">
-        <v>49</v>
+      <c r="N14" s="37" t="s">
+        <v>52</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P14" s="35" t="s">
-        <v>50</v>
+      <c r="P14" s="27" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="36" t="s">
-        <v>51</v>
+      <c r="B15" s="38" t="s">
+        <v>53</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="37" t="s">
-        <v>52</v>
+      <c r="D15" s="39" t="s">
+        <v>54</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="38" t="s">
-        <v>53</v>
+      <c r="F15" s="40" t="s">
+        <v>55</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="39" t="s">
-        <v>54</v>
+      <c r="H15" s="41" t="s">
+        <v>56</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="40" t="s">
-        <v>55</v>
+      <c r="J15" s="42" t="s">
+        <v>57</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>27</v>
@@ -1461,30 +1483,30 @@
       <c r="M15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="41" t="s">
-        <v>56</v>
+      <c r="N15" s="43" t="s">
+        <v>58</v>
       </c>
       <c r="O15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P15" s="42" t="s">
-        <v>57</v>
+      <c r="P15" s="44" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1497,110 +1519,109 @@
       <c r="C20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="43" t="s">
-        <v>61</v>
+      <c r="D20" s="45" t="s">
+        <v>63</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="44" t="s">
-        <v>62</v>
+      <c r="F20" s="46" t="s">
+        <v>64</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="45" t="s">
-        <v>63</v>
+      <c r="H20" s="47" t="s">
+        <v>65</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="46" t="s">
-        <v>65</v>
+      <c r="L20" s="48" t="s">
+        <v>67</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N20" s="47" t="s">
-        <v>66</v>
+      <c r="N20" s="49" t="s">
+        <v>68</v>
       </c>
       <c r="O20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P20" s="48" t="s">
-        <v>67</v>
+      <c r="P20" s="50" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="49" t="s">
-        <v>68</v>
+      <c r="B21" s="51" t="s">
+        <v>70</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="50" t="s">
-        <v>69</v>
+      <c r="D21" s="52" t="s">
+        <v>71</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="51" t="s">
-        <v>70</v>
+      <c r="F21" s="53" t="s">
+        <v>72</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="52" t="s">
-        <v>71</v>
+      <c r="H21" s="54" t="s">
+        <v>73</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="53" t="s">
-        <v>72</v>
+      <c r="J21" s="55" t="s">
+        <v>74</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L21" s="54" t="s">
-        <v>73</v>
+      <c r="L21" s="56" t="s">
+        <v>75</v>
       </c>
       <c r="M21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N21" s="55" t="s">
-        <v>74</v>
+      <c r="N21" s="57" t="s">
+        <v>76</v>
       </c>
       <c r="O21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P21" s="56" t="s">
-        <v>75</v>
+      <c r="P21" s="58" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="22" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="57"/>
+        <v>79</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1613,109 +1634,109 @@
       <c r="C27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="58" t="s">
-        <v>79</v>
+      <c r="D27" s="59" t="s">
+        <v>81</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="59" t="s">
-        <v>80</v>
+      <c r="F27" s="60" t="s">
+        <v>82</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="31" t="s">
-        <v>46</v>
+      <c r="H27" s="34" t="s">
+        <v>49</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L27" s="60" t="s">
-        <v>82</v>
+      <c r="L27" s="61" t="s">
+        <v>84</v>
       </c>
       <c r="M27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N27" s="34" t="s">
-        <v>49</v>
+      <c r="N27" s="37" t="s">
+        <v>52</v>
       </c>
       <c r="O27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P27" s="61" t="s">
-        <v>83</v>
+      <c r="P27" s="62" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="62" t="s">
-        <v>84</v>
+      <c r="B28" s="63" t="s">
+        <v>86</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="63" t="s">
-        <v>85</v>
+      <c r="D28" s="64" t="s">
+        <v>87</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="64" t="s">
-        <v>86</v>
+      <c r="F28" s="65" t="s">
+        <v>88</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H28" s="39" t="s">
-        <v>54</v>
+      <c r="H28" s="41" t="s">
+        <v>56</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J28" s="65" t="s">
-        <v>87</v>
+      <c r="J28" s="66" t="s">
+        <v>89</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L28" s="66" t="s">
-        <v>88</v>
+      <c r="L28" s="67" t="s">
+        <v>90</v>
       </c>
       <c r="M28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N28" s="41" t="s">
-        <v>56</v>
+      <c r="N28" s="43" t="s">
+        <v>58</v>
       </c>
       <c r="O28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P28" s="56" t="s">
-        <v>89</v>
+      <c r="P28" s="58" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="22" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="23" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/terminal-color-schemes.xlsx
+++ b/terminal-color-schemes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="96">
   <si>
     <t xml:space="preserve">DOS COLORS</t>
   </si>
@@ -34,274 +34,280 @@
     <t xml:space="preserve">color1</t>
   </si>
   <si>
+    <t xml:space="preserve">#CD0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#00CD00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#CDCD00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#0000CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#CD00CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#00CDCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#C0C0C0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#7F7F7F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#FF0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#00FF00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#FFFF00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#0000FF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#FF00FF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#00FFFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#FFFFFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">font color: aaaaaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">background color: 000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VS Code</t>
+  </si>
+  <si>
     <t xml:space="preserve">#a80000</t>
   </si>
   <si>
-    <t xml:space="preserve">color2</t>
+    <t xml:space="preserve">#16825d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#a85400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#007acc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#68217a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#00a8a8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#cccccc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#545454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#da6771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#54fc54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#fff099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#5454fc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#fc54fc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#54fcfc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#fcfcfc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">font color: d4d4d4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255/255/85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">background color: 1e1e1e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powershell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#c50f1f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#13a10e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#0037da</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#b4009e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#767676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#e74856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#16c60c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#3b78ff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#eeedf0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">background color: 012456 rgb:01/36/86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">font color: ffffff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ubuntu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#bb0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#00bb00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#bbbb00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#0000b9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#bb00bb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#00bbbb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#bbbbbb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#555555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ff5555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#55ff55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ffff55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#5555ff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ff55ff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#55ffff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ffffff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">background color: 48/10/36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">font color: #ffffff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#E5E5E5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#5C5CFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">background color: #000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom</t>
   </si>
   <si>
     <t xml:space="preserve">#00a800</t>
   </si>
   <si>
-    <t xml:space="preserve">color3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#a85400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">color4</t>
-  </si>
-  <si>
     <t xml:space="preserve">#0000a8</t>
   </si>
   <si>
-    <t xml:space="preserve">color5</t>
-  </si>
-  <si>
     <t xml:space="preserve">#a800a8</t>
   </si>
   <si>
-    <t xml:space="preserve">color6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#00a8a8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">color7</t>
-  </si>
-  <si>
     <t xml:space="preserve">#a8a8a8</t>
   </si>
   <si>
-    <t xml:space="preserve">color8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#545454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">color9</t>
-  </si>
-  <si>
     <t xml:space="preserve">#fc5454</t>
   </si>
   <si>
-    <t xml:space="preserve">color10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#54fc54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">color11</t>
-  </si>
-  <si>
     <t xml:space="preserve">#fcfc54</t>
   </si>
   <si>
-    <t xml:space="preserve">color12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#5454fc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">color13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#fc54fc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">color14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#54fcfc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">color15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#fcfcfc</t>
-  </si>
-  <si>
     <t xml:space="preserve">font color: a8a8a8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">background color: 000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VS Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#16825d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#007acc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#68217a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#cccccc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#da6771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#fff099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#88c0ef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">font color: d4d4d4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255/255/85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">background color: 1e1e1e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Powershell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#c50f1f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#13a10e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#CDCD00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#0037da</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#b4009e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#00CDCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#767676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#e74856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#16c60c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#FFFF00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#3b78ff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#00FFFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#eeedf0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">background color: 012456 rgb:01/36/86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">font color: ffffff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ubuntu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#bb0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#00bb00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#bbbb00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#0000b9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#bb00bb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#00bbbb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#bbbbbb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#555555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#ff5555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#55ff55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#ffff55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#5555ff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#ff55ff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#55ffff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#ffffff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">background color: 48/10/36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">font color: #ffffff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#CD0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#00CD00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#0000CD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#CD00CD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#E5E5E5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#7F7F7F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#FF0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#00FF00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#5C5CFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#FF00FF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#FFFFFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">background color: #000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Custom</t>
   </si>
 </sst>
 </file>
@@ -311,7 +317,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -359,10 +365,16 @@
       <color rgb="FF2E3436"/>
       <name val="PibotoLt"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="5.6"/>
+      <color rgb="FF2E3436"/>
+      <name val="PibotoLt"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="61">
+  <fills count="62">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,7 +384,97 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF3F4243"/>
+        <bgColor rgb="FF2E3436"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCD0000"/>
+        <bgColor rgb="FFBB0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF04CB02"/>
+        <bgColor rgb="FF01B300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCDCD00"/>
+        <bgColor rgb="FFBBBB00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGray">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor rgb="FF0648E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCD00CD"/>
+        <bgColor rgb="FFBB00BB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGray">
+        <fgColor rgb="FF00C0C0"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFBBBBBB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7F7F7F"/>
+        <bgColor rgb="FF767676"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFCD0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF04CB02"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFCFC54"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor rgb="FF0648E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor rgb="FFCD00CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF54FCFC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFCFCFC"/>
       </patternFill>
     </fill>
     <fill>
@@ -382,9 +484,9 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="darkGray">
-        <fgColor rgb="FF04A503"/>
-        <bgColor rgb="FF00BB00"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF16825D"/>
+        <bgColor rgb="FF04A503"/>
       </patternFill>
     </fill>
     <fill>
@@ -395,8 +497,224 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0016D1"/>
-        <bgColor rgb="FF68217A"/>
+        <fgColor rgb="FF0985E1"/>
+        <bgColor rgb="FF346AFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF68217A"/>
+        <bgColor rgb="FF4F5050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGray">
+        <fgColor rgb="FF00C0C0"/>
+        <bgColor rgb="FF0985E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F5050"/>
+        <bgColor rgb="FF555555"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDA6771"/>
+        <bgColor rgb="FFFC5454"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF54FC54"/>
+        <bgColor rgb="FF55FF55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF099"/>
+        <bgColor rgb="FFFCFC54"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5454FC"/>
+        <bgColor rgb="FF5555FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC54FC"/>
+        <bgColor rgb="FFFF55FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF54FCFC"/>
+        <bgColor rgb="FF55FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCFCFC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC50F1F"/>
+        <bgColor rgb="FFCD0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF04A503"/>
+        <bgColor rgb="FF01B300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0648E3"/>
+        <bgColor rgb="FF346AFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4009E"/>
+        <bgColor rgb="FFA800A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF767676"/>
+        <bgColor rgb="FF7F7F7F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE74856"/>
+        <bgColor rgb="FFFC5454"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGray">
+        <fgColor rgb="FF04CB02"/>
+        <bgColor rgb="FF01B300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF346AFA"/>
+        <bgColor rgb="FF5555FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEDF0"/>
+        <bgColor rgb="FFE5E5E5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBB0000"/>
+        <bgColor rgb="FFCD0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGray">
+        <fgColor rgb="FF01B300"/>
+        <bgColor rgb="FF04CB02"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBBB00"/>
+        <bgColor rgb="FFCDCD00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBB00BB"/>
+        <bgColor rgb="FFB4009E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00C0C0"/>
+        <bgColor rgb="FF0985E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBBBBB"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF555555"/>
+        <bgColor rgb="FF4F5050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5555"/>
+        <bgColor rgb="FFFC5454"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF55FF55"/>
+        <bgColor rgb="FF54FC54"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF55"/>
+        <bgColor rgb="FFFCFC54"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5555FF"/>
+        <bgColor rgb="FF5454FC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF55FF"/>
+        <bgColor rgb="FFFC54FC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF55FFFF"/>
+        <bgColor rgb="FF54FCFC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5E5E5"/>
+        <bgColor rgb="FFEEEDF0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5C5CFF"/>
+        <bgColor rgb="FF5555FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <fgColor rgb="FF04A503"/>
+        <bgColor rgb="FF01B300"/>
       </patternFill>
     </fill>
     <fill>
@@ -407,23 +725,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00A8A8"/>
-        <bgColor rgb="FF00BBBB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA8A8A8"/>
         <bgColor rgb="FFBBBBBB"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="darkGray">
-        <fgColor rgb="FF555555"/>
-        <bgColor rgb="FF3F4243"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFC5454"/>
         <bgColor rgb="FFFF5555"/>
@@ -431,296 +737,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF54FC54"/>
-        <bgColor rgb="FF55FF55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFCFC54"/>
         <bgColor rgb="FFFFFF55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5454FC"/>
-        <bgColor rgb="FF5555FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFC54FC"/>
-        <bgColor rgb="FFFF55FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF54FCFC"/>
-        <bgColor rgb="FF55FFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCFCFC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF16825D"/>
-        <bgColor rgb="FF00A8A8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkGray">
-        <fgColor rgb="FF0C79F5"/>
-        <bgColor rgb="FF00A8A8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF68217A"/>
-        <bgColor rgb="FF3F4243"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFBBBBBB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDA6771"/>
-        <bgColor rgb="FFFC5454"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF099"/>
-        <bgColor rgb="FFFCFC54"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF88C0EF"/>
-        <bgColor rgb="FFBBBBBB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC50F1F"/>
-        <bgColor rgb="FFCD0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF04A503"/>
-        <bgColor rgb="FF00BB00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCDCD00"/>
-        <bgColor rgb="FFBBBB00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="mediumGray">
-        <fgColor rgb="FF0016D1"/>
-        <bgColor rgb="FF0C79F5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB4009E"/>
-        <bgColor rgb="FFA800A8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00CDCD"/>
-        <bgColor rgb="FF00BBBB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF767676"/>
-        <bgColor rgb="FF7F7F7F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE74856"/>
-        <bgColor rgb="FFFC5454"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF16C60C"/>
-        <bgColor rgb="FF00CD00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFCFC54"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="mediumGray">
-        <fgColor rgb="FF0C79F5"/>
-        <bgColor rgb="FF5C5CFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
-        <bgColor rgb="FF00CDCD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEEDF0"/>
-        <bgColor rgb="FFE5E5E5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBB0000"/>
-        <bgColor rgb="FFCD0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00BB00"/>
-        <bgColor rgb="FF00CD00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBBBB00"/>
-        <bgColor rgb="FFCDCD00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBB00BB"/>
-        <bgColor rgb="FFB4009E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00BBBB"/>
-        <bgColor rgb="FF00CDCD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBBBBBB"/>
-        <bgColor rgb="FFCCCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF555555"/>
-        <bgColor rgb="FF3F4243"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF5555"/>
-        <bgColor rgb="FFFC5454"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF55FF55"/>
-        <bgColor rgb="FF54FC54"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF55"/>
-        <bgColor rgb="FFFCFC54"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5555FF"/>
-        <bgColor rgb="FF5454FC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF55FF"/>
-        <bgColor rgb="FFFC54FC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF55FFFF"/>
-        <bgColor rgb="FF54FCFC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFCFCFC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCD0000"/>
-        <bgColor rgb="FFBB0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00CD00"/>
-        <bgColor rgb="FF16C60C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCD00CD"/>
-        <bgColor rgb="FFBB00BB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE5E5E5"/>
-        <bgColor rgb="FFEEEDF0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7F7F7F"/>
-        <bgColor rgb="FF767676"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFCD0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00CD00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5C5CFF"/>
-        <bgColor rgb="FF5555FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF00FF"/>
-        <bgColor rgb="FFCD00CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -772,7 +790,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -845,7 +863,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -865,11 +883,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="18" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -881,7 +903,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="21" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="21" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -889,7 +911,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="23" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -897,10 +919,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="25" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -909,11 +927,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="27" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="28" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="27" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="28" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -921,23 +939,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="30" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="31" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="32" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="33" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="34" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="30" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="31" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="32" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="33" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="34" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -945,19 +967,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="36" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="37" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="38" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="39" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="36" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="37" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="38" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="39" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -965,11 +987,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="41" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="42" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="41" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="42" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -985,11 +1007,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="46" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="47" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="46" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="47" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -997,11 +1019,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="49" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="50" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="49" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="50" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1009,15 +1031,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="52" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="53" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="54" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="52" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="53" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="54" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1033,7 +1055,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="58" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="58" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1041,7 +1063,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="60" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="60" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="61" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1060,17 +1086,17 @@
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0016D1"/>
+      <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FFA80000"/>
       <rgbColor rgb="FF04A503"/>
       <rgbColor rgb="FFBB00BB"/>
-      <rgbColor rgb="FF00BB00"/>
+      <rgbColor rgb="FF04CB02"/>
       <rgbColor rgb="FFA800A8"/>
       <rgbColor rgb="FF16825D"/>
-      <rgbColor rgb="FFBBBBBB"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF7F7F7F"/>
       <rgbColor rgb="FF5C5CFF"/>
       <rgbColor rgb="FFC50F1F"/>
@@ -1078,26 +1104,26 @@
       <rgbColor rgb="FFEEEDF0"/>
       <rgbColor rgb="FF68217A"/>
       <rgbColor rgb="FFDA6771"/>
-      <rgbColor rgb="FF0C79F5"/>
+      <rgbColor rgb="FF0648E3"/>
       <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF54FC54"/>
       <rgbColor rgb="FFCD00CD"/>
       <rgbColor rgb="FFFCFC54"/>
-      <rgbColor rgb="FF54FCFC"/>
+      <rgbColor rgb="FF55FFFF"/>
       <rgbColor rgb="FFB4009E"/>
       <rgbColor rgb="FFBB0000"/>
-      <rgbColor rgb="FF00A8A8"/>
+      <rgbColor rgb="FF0985E1"/>
+      <rgbColor rgb="FF5555FF"/>
+      <rgbColor rgb="FF00C0C0"/>
       <rgbColor rgb="FF55FF55"/>
-      <rgbColor rgb="FF00CDCD"/>
-      <rgbColor rgb="FF55FFFF"/>
       <rgbColor rgb="FFE5E5E5"/>
       <rgbColor rgb="FFFFF099"/>
-      <rgbColor rgb="FF88C0EF"/>
+      <rgbColor rgb="FFBBBBBB"/>
       <rgbColor rgb="FFFF55FF"/>
       <rgbColor rgb="FFFC54FC"/>
       <rgbColor rgb="FFFFFF55"/>
-      <rgbColor rgb="FF5555FF"/>
-      <rgbColor rgb="FF00BBBB"/>
+      <rgbColor rgb="FF346AFA"/>
+      <rgbColor rgb="FF54FCFC"/>
       <rgbColor rgb="FFBBBB00"/>
       <rgbColor rgb="FFCDCD00"/>
       <rgbColor rgb="FFFC5454"/>
@@ -1105,13 +1131,13 @@
       <rgbColor rgb="FF767676"/>
       <rgbColor rgb="FFA8A8A8"/>
       <rgbColor rgb="FF5454FC"/>
-      <rgbColor rgb="FF16C60C"/>
-      <rgbColor rgb="FF00CD00"/>
+      <rgbColor rgb="FF01B300"/>
       <rgbColor rgb="FFCD0000"/>
+      <rgbColor rgb="FF555555"/>
       <rgbColor rgb="FFA85400"/>
       <rgbColor rgb="FFE74856"/>
-      <rgbColor rgb="FF555555"/>
-      <rgbColor rgb="FF3F4243"/>
+      <rgbColor rgb="FF4F5050"/>
+      <rgbColor rgb="FF2E3436"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1125,7 +1151,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1264,12 +1290,13 @@
       <c r="A5" s="22" t="s">
         <v>34</v>
       </c>
+      <c r="E5" s="23"/>
     </row>
     <row r="6" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="22"/>
     </row>
     <row r="7" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="24" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1283,114 +1310,114 @@
       <c r="C8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>4</v>
+      <c r="D8" s="25" t="s">
+        <v>36</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="24" t="s">
-        <v>36</v>
+      <c r="F8" s="26" t="s">
+        <v>37</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>8</v>
+      <c r="H8" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="25" t="s">
-        <v>37</v>
+      <c r="J8" s="28" t="s">
+        <v>39</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="26" t="s">
-        <v>38</v>
+      <c r="L8" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="12" t="s">
-        <v>14</v>
+      <c r="N8" s="30" t="s">
+        <v>41</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P8" s="27" t="s">
-        <v>39</v>
+      <c r="P8" s="31" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>18</v>
+      <c r="B9" s="32" t="s">
+        <v>43</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>40</v>
+      <c r="D9" s="33" t="s">
+        <v>44</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>22</v>
+      <c r="F9" s="34" t="s">
+        <v>45</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="29" t="s">
-        <v>41</v>
+      <c r="H9" s="35" t="s">
+        <v>46</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="30" t="s">
-        <v>42</v>
+      <c r="J9" s="36" t="s">
+        <v>47</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="19" t="s">
-        <v>28</v>
+      <c r="L9" s="37" t="s">
+        <v>48</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N9" s="20" t="s">
-        <v>30</v>
+      <c r="N9" s="38" t="s">
+        <v>49</v>
       </c>
       <c r="O9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P9" s="21" t="s">
-        <v>32</v>
+      <c r="P9" s="39" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>44</v>
+        <v>51</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="22" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="22" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1403,110 +1430,110 @@
       <c r="C14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="32" t="s">
-        <v>47</v>
+      <c r="D14" s="41" t="s">
+        <v>55</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="33" t="s">
-        <v>48</v>
+      <c r="F14" s="42" t="s">
+        <v>56</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="34" t="s">
-        <v>49</v>
+      <c r="H14" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="35" t="s">
-        <v>50</v>
+      <c r="J14" s="43" t="s">
+        <v>57</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="36" t="s">
-        <v>51</v>
+      <c r="L14" s="44" t="s">
+        <v>58</v>
       </c>
       <c r="M14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N14" s="37" t="s">
-        <v>52</v>
+      <c r="N14" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P14" s="27" t="s">
-        <v>39</v>
+      <c r="P14" s="31" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="38" t="s">
-        <v>53</v>
+      <c r="B15" s="45" t="s">
+        <v>59</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="39" t="s">
-        <v>54</v>
+      <c r="D15" s="46" t="s">
+        <v>60</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="40" t="s">
-        <v>55</v>
+      <c r="F15" s="47" t="s">
+        <v>61</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="41" t="s">
-        <v>56</v>
+      <c r="H15" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="42" t="s">
-        <v>57</v>
+      <c r="J15" s="48" t="s">
+        <v>62</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="19" t="s">
-        <v>28</v>
+      <c r="L15" s="37" t="s">
+        <v>48</v>
       </c>
       <c r="M15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="43" t="s">
-        <v>58</v>
+      <c r="N15" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="O15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P15" s="44" t="s">
-        <v>59</v>
+      <c r="P15" s="49" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="22" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1519,109 +1546,109 @@
       <c r="C20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="45" t="s">
-        <v>63</v>
+      <c r="D20" s="50" t="s">
+        <v>67</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="46" t="s">
-        <v>64</v>
+      <c r="F20" s="51" t="s">
+        <v>68</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="47" t="s">
-        <v>65</v>
+      <c r="H20" s="52" t="s">
+        <v>69</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="48" t="s">
-        <v>67</v>
+      <c r="L20" s="53" t="s">
+        <v>71</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N20" s="49" t="s">
-        <v>68</v>
+      <c r="N20" s="54" t="s">
+        <v>72</v>
       </c>
       <c r="O20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P20" s="50" t="s">
-        <v>69</v>
+      <c r="P20" s="55" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="51" t="s">
-        <v>70</v>
+      <c r="B21" s="56" t="s">
+        <v>74</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="52" t="s">
-        <v>71</v>
+      <c r="D21" s="57" t="s">
+        <v>75</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="53" t="s">
-        <v>72</v>
+      <c r="F21" s="58" t="s">
+        <v>76</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="54" t="s">
-        <v>73</v>
+      <c r="H21" s="59" t="s">
+        <v>77</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="55" t="s">
-        <v>74</v>
+      <c r="J21" s="60" t="s">
+        <v>78</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L21" s="56" t="s">
-        <v>75</v>
+      <c r="L21" s="61" t="s">
+        <v>79</v>
       </c>
       <c r="M21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N21" s="57" t="s">
-        <v>76</v>
+      <c r="N21" s="62" t="s">
+        <v>80</v>
       </c>
       <c r="O21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P21" s="58" t="s">
-        <v>77</v>
+      <c r="P21" s="21" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="22" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="22" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1634,43 +1661,43 @@
       <c r="C27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="59" t="s">
-        <v>81</v>
+      <c r="D27" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="60" t="s">
-        <v>82</v>
+      <c r="F27" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="34" t="s">
-        <v>49</v>
+      <c r="H27" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L27" s="61" t="s">
-        <v>84</v>
+      <c r="L27" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="M27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N27" s="37" t="s">
-        <v>52</v>
+      <c r="N27" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="O27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P27" s="62" t="s">
+      <c r="P27" s="63" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1678,65 +1705,65 @@
       <c r="A28" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="63" t="s">
-        <v>86</v>
+      <c r="B28" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="64" t="s">
-        <v>87</v>
+      <c r="D28" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="65" t="s">
-        <v>88</v>
+      <c r="F28" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H28" s="41" t="s">
-        <v>56</v>
+      <c r="H28" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J28" s="66" t="s">
-        <v>89</v>
+      <c r="J28" s="64" t="s">
+        <v>86</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L28" s="67" t="s">
-        <v>90</v>
+      <c r="L28" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="M28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N28" s="43" t="s">
-        <v>58</v>
+      <c r="N28" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="O28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P28" s="58" t="s">
-        <v>91</v>
+      <c r="P28" s="21" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="22" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="22" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="23" t="s">
-        <v>93</v>
+      <c r="A33" s="24" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1749,99 +1776,99 @@
       <c r="C34" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>4</v>
+      <c r="D34" s="25" t="s">
+        <v>36</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F34" s="8" t="s">
-        <v>6</v>
+      <c r="F34" s="65" t="s">
+        <v>89</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H34" s="9" t="s">
-        <v>8</v>
+      <c r="H34" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L34" s="11" t="s">
-        <v>12</v>
+      <c r="L34" s="66" t="s">
+        <v>91</v>
       </c>
       <c r="M34" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N34" s="12" t="s">
-        <v>14</v>
+      <c r="N34" s="30" t="s">
+        <v>41</v>
       </c>
       <c r="O34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P34" s="13" t="s">
-        <v>16</v>
+      <c r="P34" s="67" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>18</v>
+      <c r="B35" s="32" t="s">
+        <v>43</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="15" t="s">
-        <v>20</v>
+      <c r="D35" s="68" t="s">
+        <v>93</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="16" t="s">
-        <v>22</v>
+      <c r="F35" s="34" t="s">
+        <v>45</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H35" s="17" t="s">
-        <v>24</v>
+      <c r="H35" s="69" t="s">
+        <v>94</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J35" s="18" t="s">
-        <v>26</v>
+      <c r="J35" s="36" t="s">
+        <v>47</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L35" s="19" t="s">
-        <v>28</v>
+      <c r="L35" s="37" t="s">
+        <v>48</v>
       </c>
       <c r="M35" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N35" s="20" t="s">
-        <v>30</v>
+      <c r="N35" s="38" t="s">
+        <v>49</v>
       </c>
       <c r="O35" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P35" s="21" t="s">
-        <v>32</v>
+      <c r="P35" s="39" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="22" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/terminal-color-schemes.xlsx
+++ b/terminal-color-schemes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="95">
   <si>
     <t xml:space="preserve">DOS COLORS</t>
   </si>
@@ -34,91 +34,91 @@
     <t xml:space="preserve">color1</t>
   </si>
   <si>
-    <t xml:space="preserve">#CD0000</t>
+    <t xml:space="preserve">#cd0000</t>
   </si>
   <si>
     <t xml:space="preserve">color2</t>
   </si>
   <si>
-    <t xml:space="preserve">#00CD00</t>
+    <t xml:space="preserve">#00cd00</t>
   </si>
   <si>
     <t xml:space="preserve">color3</t>
   </si>
   <si>
-    <t xml:space="preserve">#CDCD00</t>
+    <t xml:space="preserve">#cdcd00</t>
   </si>
   <si>
     <t xml:space="preserve">color4</t>
   </si>
   <si>
-    <t xml:space="preserve">#0000CD</t>
+    <t xml:space="preserve">#0000cd</t>
   </si>
   <si>
     <t xml:space="preserve">color5</t>
   </si>
   <si>
-    <t xml:space="preserve">#CD00CD</t>
+    <t xml:space="preserve">#cd00cd</t>
   </si>
   <si>
     <t xml:space="preserve">color6</t>
   </si>
   <si>
-    <t xml:space="preserve">#00CDCD</t>
+    <t xml:space="preserve">#00cdcd</t>
   </si>
   <si>
     <t xml:space="preserve">color7</t>
   </si>
   <si>
-    <t xml:space="preserve">#C0C0C0</t>
+    <t xml:space="preserve">#c0c0c0</t>
   </si>
   <si>
     <t xml:space="preserve">color8</t>
   </si>
   <si>
-    <t xml:space="preserve">#7F7F7F</t>
+    <t xml:space="preserve">#7f7f7f</t>
   </si>
   <si>
     <t xml:space="preserve">color9</t>
   </si>
   <si>
-    <t xml:space="preserve">#FF0000</t>
+    <t xml:space="preserve">#ff0000</t>
   </si>
   <si>
     <t xml:space="preserve">color10</t>
   </si>
   <si>
-    <t xml:space="preserve">#00FF00</t>
+    <t xml:space="preserve">#00ff00</t>
   </si>
   <si>
     <t xml:space="preserve">color11</t>
   </si>
   <si>
-    <t xml:space="preserve">#FFFF00</t>
+    <t xml:space="preserve">#ffff00</t>
   </si>
   <si>
     <t xml:space="preserve">color12</t>
   </si>
   <si>
-    <t xml:space="preserve">#0000FF</t>
+    <t xml:space="preserve">#0000ff</t>
   </si>
   <si>
     <t xml:space="preserve">color13</t>
   </si>
   <si>
-    <t xml:space="preserve">#FF00FF</t>
+    <t xml:space="preserve">#ff00ff</t>
   </si>
   <si>
     <t xml:space="preserve">color14</t>
   </si>
   <si>
-    <t xml:space="preserve">#00FFFF</t>
+    <t xml:space="preserve">#00ffff</t>
   </si>
   <si>
     <t xml:space="preserve">color15</t>
   </si>
   <si>
-    <t xml:space="preserve">#FFFFFF</t>
+    <t xml:space="preserve">#ffffff</t>
   </si>
   <si>
     <t xml:space="preserve">font color: aaaaaa</t>
@@ -265,9 +265,6 @@
     <t xml:space="preserve">#55ffff</t>
   </si>
   <si>
-    <t xml:space="preserve">#ffffff</t>
-  </si>
-  <si>
     <t xml:space="preserve">background color: 48/10/36</t>
   </si>
   <si>
@@ -277,10 +274,10 @@
     <t xml:space="preserve">Default</t>
   </si>
   <si>
-    <t xml:space="preserve">#E5E5E5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#5C5CFF</t>
+    <t xml:space="preserve">#e5e5e5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#5c5cff</t>
   </si>
   <si>
     <t xml:space="preserve">background color: #000000</t>
@@ -317,7 +314,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -365,12 +362,6 @@
       <color rgb="FF2E3436"/>
       <name val="PibotoLt"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="5.6"/>
-      <color rgb="FF2E3436"/>
-      <name val="PibotoLt"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -384,7 +375,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF2E3436"/>
+        <bgColor rgb="FF3F4243"/>
       </patternFill>
     </fill>
     <fill>
@@ -396,7 +387,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF04CB02"/>
-        <bgColor rgb="FF01B300"/>
+        <bgColor rgb="FF03C501"/>
       </patternFill>
     </fill>
     <fill>
@@ -419,7 +410,7 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FF00C0C0"/>
+        <fgColor rgb="FF00C6CB"/>
         <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
@@ -486,7 +477,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF16825D"/>
-        <bgColor rgb="FF04A503"/>
+        <bgColor rgb="FF02A901"/>
       </patternFill>
     </fill>
     <fill>
@@ -504,12 +495,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF68217A"/>
-        <bgColor rgb="FF4F5050"/>
+        <bgColor rgb="FF3F4243"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FF00C0C0"/>
+        <fgColor rgb="FF00C6CB"/>
         <bgColor rgb="FF0985E1"/>
       </patternFill>
     </fill>
@@ -520,9 +511,9 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4F5050"/>
-        <bgColor rgb="FF555555"/>
+      <patternFill patternType="darkGray">
+        <fgColor rgb="FF555555"/>
+        <bgColor rgb="FF3F4243"/>
       </patternFill>
     </fill>
     <fill>
@@ -575,8 +566,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF04A503"/>
-        <bgColor rgb="FF01B300"/>
+        <fgColor rgb="FF02A901"/>
+        <bgColor rgb="FF02B901"/>
       </patternFill>
     </fill>
     <fill>
@@ -604,9 +595,9 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="darkGray">
-        <fgColor rgb="FF04CB02"/>
-        <bgColor rgb="FF01B300"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF03C501"/>
+        <bgColor rgb="FF04CB02"/>
       </patternFill>
     </fill>
     <fill>
@@ -628,9 +619,9 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="darkGray">
-        <fgColor rgb="FF01B300"/>
-        <bgColor rgb="FF04CB02"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF02B901"/>
+        <bgColor rgb="FF03C501"/>
       </patternFill>
     </fill>
     <fill>
@@ -647,7 +638,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00C0C0"/>
+        <fgColor rgb="FF00C6CB"/>
         <bgColor rgb="FF0985E1"/>
       </patternFill>
     </fill>
@@ -660,7 +651,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF555555"/>
-        <bgColor rgb="FF4F5050"/>
+        <bgColor rgb="FF3F4243"/>
       </patternFill>
     </fill>
     <fill>
@@ -712,9 +703,9 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="mediumGray">
-        <fgColor rgb="FF04A503"/>
-        <bgColor rgb="FF01B300"/>
+      <patternFill patternType="darkGray">
+        <fgColor rgb="FF02A901"/>
+        <bgColor rgb="FF02B901"/>
       </patternFill>
     </fill>
     <fill>
@@ -790,7 +781,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -948,10 +939,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="32" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1091,9 +1078,9 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FFA80000"/>
-      <rgbColor rgb="FF04A503"/>
+      <rgbColor rgb="FF02A901"/>
       <rgbColor rgb="FFBB00BB"/>
-      <rgbColor rgb="FF04CB02"/>
+      <rgbColor rgb="FF03C501"/>
       <rgbColor rgb="FFA800A8"/>
       <rgbColor rgb="FF16825D"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -1114,7 +1101,7 @@
       <rgbColor rgb="FFBB0000"/>
       <rgbColor rgb="FF0985E1"/>
       <rgbColor rgb="FF5555FF"/>
-      <rgbColor rgb="FF00C0C0"/>
+      <rgbColor rgb="FF00C6CB"/>
       <rgbColor rgb="FF55FF55"/>
       <rgbColor rgb="FFE5E5E5"/>
       <rgbColor rgb="FFFFF099"/>
@@ -1131,13 +1118,13 @@
       <rgbColor rgb="FF767676"/>
       <rgbColor rgb="FFA8A8A8"/>
       <rgbColor rgb="FF5454FC"/>
-      <rgbColor rgb="FF01B300"/>
+      <rgbColor rgb="FF02B901"/>
+      <rgbColor rgb="FF04CB02"/>
       <rgbColor rgb="FFCD0000"/>
-      <rgbColor rgb="FF555555"/>
       <rgbColor rgb="FFA85400"/>
       <rgbColor rgb="FFE74856"/>
-      <rgbColor rgb="FF4F5050"/>
-      <rgbColor rgb="FF2E3436"/>
+      <rgbColor rgb="FF555555"/>
+      <rgbColor rgb="FF3F4243"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1151,7 +1138,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1404,7 +1391,7 @@
       <c r="A10" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="23" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1430,13 +1417,13 @@
       <c r="C14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="40" t="s">
         <v>55</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="42" t="s">
+      <c r="F14" s="41" t="s">
         <v>56</v>
       </c>
       <c r="G14" s="5" t="s">
@@ -1448,13 +1435,13 @@
       <c r="I14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="43" t="s">
+      <c r="J14" s="42" t="s">
         <v>57</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="44" t="s">
+      <c r="L14" s="43" t="s">
         <v>58</v>
       </c>
       <c r="M14" s="5" t="s">
@@ -1474,19 +1461,19 @@
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="44" t="s">
         <v>59</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="45" t="s">
         <v>60</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="46" t="s">
         <v>61</v>
       </c>
       <c r="G15" s="5" t="s">
@@ -1498,7 +1485,7 @@
       <c r="I15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="48" t="s">
+      <c r="J15" s="47" t="s">
         <v>62</v>
       </c>
       <c r="K15" s="5" t="s">
@@ -1516,7 +1503,7 @@
       <c r="O15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P15" s="49" t="s">
+      <c r="P15" s="48" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1546,19 +1533,19 @@
       <c r="C20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="49" t="s">
         <v>67</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="51" t="s">
+      <c r="F20" s="50" t="s">
         <v>68</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="52" t="s">
+      <c r="H20" s="51" t="s">
         <v>69</v>
       </c>
       <c r="I20" s="5" t="s">
@@ -1570,19 +1557,19 @@
       <c r="K20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="53" t="s">
+      <c r="L20" s="52" t="s">
         <v>71</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N20" s="54" t="s">
+      <c r="N20" s="53" t="s">
         <v>72</v>
       </c>
       <c r="O20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P20" s="55" t="s">
+      <c r="P20" s="54" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1590,65 +1577,65 @@
       <c r="A21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="55" t="s">
         <v>74</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="56" t="s">
         <v>75</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="58" t="s">
+      <c r="F21" s="57" t="s">
         <v>76</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="59" t="s">
+      <c r="H21" s="58" t="s">
         <v>77</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="60" t="s">
+      <c r="J21" s="59" t="s">
         <v>78</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L21" s="61" t="s">
+      <c r="L21" s="60" t="s">
         <v>79</v>
       </c>
       <c r="M21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N21" s="62" t="s">
+      <c r="N21" s="61" t="s">
         <v>80</v>
       </c>
       <c r="O21" s="5" t="s">
         <v>31</v>
       </c>
       <c r="P21" s="21" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1697,8 +1684,8 @@
       <c r="O27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P27" s="63" t="s">
-        <v>85</v>
+      <c r="P27" s="62" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1729,8 +1716,8 @@
       <c r="I28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J28" s="64" t="s">
-        <v>86</v>
+      <c r="J28" s="63" t="s">
+        <v>85</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>27</v>
@@ -1753,17 +1740,17 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1782,8 +1769,8 @@
       <c r="E34" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F34" s="65" t="s">
-        <v>89</v>
+      <c r="F34" s="64" t="s">
+        <v>88</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>7</v>
@@ -1795,13 +1782,13 @@
         <v>9</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L34" s="66" t="s">
-        <v>91</v>
+      <c r="L34" s="65" t="s">
+        <v>90</v>
       </c>
       <c r="M34" s="5" t="s">
         <v>13</v>
@@ -1812,8 +1799,8 @@
       <c r="O34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P34" s="67" t="s">
-        <v>92</v>
+      <c r="P34" s="66" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1826,8 +1813,8 @@
       <c r="C35" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="68" t="s">
-        <v>93</v>
+      <c r="D35" s="67" t="s">
+        <v>92</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>21</v>
@@ -1838,8 +1825,8 @@
       <c r="G35" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H35" s="69" t="s">
-        <v>94</v>
+      <c r="H35" s="68" t="s">
+        <v>93</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>25</v>
@@ -1868,7 +1855,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/terminal-color-schemes.xlsx
+++ b/terminal-color-schemes.xlsx
@@ -365,7 +365,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="62">
+  <fills count="61">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,7 +387,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF04CB02"/>
-        <bgColor rgb="FF03C501"/>
+        <bgColor rgb="FF02C101"/>
       </patternFill>
     </fill>
     <fill>
@@ -409,9 +409,9 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="darkGray">
-        <fgColor rgb="FF00C6CB"/>
-        <bgColor rgb="FF00FFFF"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00D0D4"/>
+        <bgColor rgb="FF03B5D1"/>
       </patternFill>
     </fill>
     <fill>
@@ -459,7 +459,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00FFFF"/>
-        <bgColor rgb="FF54FCFC"/>
+        <bgColor rgb="FF00D0D4"/>
       </patternFill>
     </fill>
     <fill>
@@ -477,7 +477,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF16825D"/>
-        <bgColor rgb="FF02A901"/>
+        <bgColor rgb="FF0985E1"/>
       </patternFill>
     </fill>
     <fill>
@@ -499,9 +499,9 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="darkGray">
-        <fgColor rgb="FF00C6CB"/>
-        <bgColor rgb="FF0985E1"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF03B5D1"/>
+        <bgColor rgb="FF00D0D4"/>
       </patternFill>
     </fill>
     <fill>
@@ -566,8 +566,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF02A901"/>
-        <bgColor rgb="FF02B901"/>
+        <fgColor rgb="FF02AB01"/>
+        <bgColor rgb="FF02C101"/>
       </patternFill>
     </fill>
     <fill>
@@ -595,8 +595,8 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF03C501"/>
+      <patternFill patternType="mediumGray">
+        <fgColor rgb="FF02C101"/>
         <bgColor rgb="FF04CB02"/>
       </patternFill>
     </fill>
@@ -619,9 +619,9 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF02B901"/>
-        <bgColor rgb="FF03C501"/>
+      <patternFill patternType="darkGray">
+        <fgColor rgb="FF02C101"/>
+        <bgColor rgb="FF02AB01"/>
       </patternFill>
     </fill>
     <fill>
@@ -637,9 +637,9 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00C6CB"/>
-        <bgColor rgb="FF0985E1"/>
+      <patternFill patternType="darkGray">
+        <fgColor rgb="FF00D0D4"/>
+        <bgColor rgb="FF03B5D1"/>
       </patternFill>
     </fill>
     <fill>
@@ -700,12 +700,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF5C5CFF"/>
         <bgColor rgb="FF5555FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkGray">
-        <fgColor rgb="FF02A901"/>
-        <bgColor rgb="FF02B901"/>
       </patternFill>
     </fill>
     <fill>
@@ -781,7 +775,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -834,7 +828,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1050,11 +1044,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="60" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="61" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="60" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1078,9 +1068,9 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FFA80000"/>
-      <rgbColor rgb="FF02A901"/>
+      <rgbColor rgb="FF02AB01"/>
       <rgbColor rgb="FFBB00BB"/>
-      <rgbColor rgb="FF03C501"/>
+      <rgbColor rgb="FF04CB02"/>
       <rgbColor rgb="FFA800A8"/>
       <rgbColor rgb="FF16825D"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -1093,16 +1083,16 @@
       <rgbColor rgb="FFDA6771"/>
       <rgbColor rgb="FF0648E3"/>
       <rgbColor rgb="FFCCCCCC"/>
-      <rgbColor rgb="FF54FC54"/>
+      <rgbColor rgb="FF55FF55"/>
       <rgbColor rgb="FFCD00CD"/>
       <rgbColor rgb="FFFCFC54"/>
-      <rgbColor rgb="FF55FFFF"/>
+      <rgbColor rgb="FF54FCFC"/>
       <rgbColor rgb="FFB4009E"/>
       <rgbColor rgb="FFBB0000"/>
       <rgbColor rgb="FF0985E1"/>
       <rgbColor rgb="FF5555FF"/>
-      <rgbColor rgb="FF00C6CB"/>
-      <rgbColor rgb="FF55FF55"/>
+      <rgbColor rgb="FF00D0D4"/>
+      <rgbColor rgb="FF55FFFF"/>
       <rgbColor rgb="FFE5E5E5"/>
       <rgbColor rgb="FFFFF099"/>
       <rgbColor rgb="FFBBBBBB"/>
@@ -1110,7 +1100,7 @@
       <rgbColor rgb="FFFC54FC"/>
       <rgbColor rgb="FFFFFF55"/>
       <rgbColor rgb="FF346AFA"/>
-      <rgbColor rgb="FF54FCFC"/>
+      <rgbColor rgb="FF03B5D1"/>
       <rgbColor rgb="FFBBBB00"/>
       <rgbColor rgb="FFCDCD00"/>
       <rgbColor rgb="FFFC5454"/>
@@ -1118,8 +1108,8 @@
       <rgbColor rgb="FF767676"/>
       <rgbColor rgb="FFA8A8A8"/>
       <rgbColor rgb="FF5454FC"/>
-      <rgbColor rgb="FF02B901"/>
-      <rgbColor rgb="FF04CB02"/>
+      <rgbColor rgb="FF02C101"/>
+      <rgbColor rgb="FF54FC54"/>
       <rgbColor rgb="FFCD0000"/>
       <rgbColor rgb="FFA85400"/>
       <rgbColor rgb="FFE74856"/>
@@ -1138,7 +1128,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="topLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1769,7 +1759,7 @@
       <c r="E34" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F34" s="64" t="s">
+      <c r="F34" s="41" t="s">
         <v>88</v>
       </c>
       <c r="G34" s="5" t="s">
@@ -1787,7 +1777,7 @@
       <c r="K34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L34" s="65" t="s">
+      <c r="L34" s="64" t="s">
         <v>90</v>
       </c>
       <c r="M34" s="5" t="s">
@@ -1799,7 +1789,7 @@
       <c r="O34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P34" s="66" t="s">
+      <c r="P34" s="65" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1813,7 +1803,7 @@
       <c r="C35" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="67" t="s">
+      <c r="D35" s="66" t="s">
         <v>92</v>
       </c>
       <c r="E35" s="5" t="s">
@@ -1825,7 +1815,7 @@
       <c r="G35" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H35" s="68" t="s">
+      <c r="H35" s="67" t="s">
         <v>93</v>
       </c>
       <c r="I35" s="5" t="s">

--- a/terminal-color-schemes.xlsx
+++ b/terminal-color-schemes.xlsx
@@ -100,7 +100,7 @@
     <t xml:space="preserve">color12</t>
   </si>
   <si>
-    <t xml:space="preserve">#0000ff</t>
+    <t xml:space="preserve">#5c5cff </t>
   </si>
   <si>
     <t xml:space="preserve">color13</t>
@@ -365,7 +365,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="61">
+  <fills count="60">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,7 +387,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF04CB02"/>
-        <bgColor rgb="FF02C101"/>
+        <bgColor rgb="FF03C602"/>
       </patternFill>
     </fill>
     <fill>
@@ -397,9 +397,9 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="darkGray">
-        <fgColor rgb="FF0000FF"/>
-        <bgColor rgb="FF0648E3"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0320F4"/>
+        <bgColor rgb="FF5454FC"/>
       </patternFill>
     </fill>
     <fill>
@@ -410,7 +410,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00D0D4"/>
+        <fgColor rgb="FF00CED4"/>
         <bgColor rgb="FF03B5D1"/>
       </patternFill>
     </fill>
@@ -446,8 +446,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0000FF"/>
-        <bgColor rgb="FF0648E3"/>
+        <fgColor rgb="FF5C5CFF"/>
+        <bgColor rgb="FF5555FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -459,7 +459,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00FFFF"/>
-        <bgColor rgb="FF00D0D4"/>
+        <bgColor rgb="FF00CED4"/>
       </patternFill>
     </fill>
     <fill>
@@ -501,7 +501,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF03B5D1"/>
-        <bgColor rgb="FF00D0D4"/>
+        <bgColor rgb="FF00CED4"/>
       </patternFill>
     </fill>
     <fill>
@@ -567,12 +567,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF02AB01"/>
-        <bgColor rgb="FF02C101"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0648E3"/>
+        <bgColor rgb="FF02BB01"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <fgColor rgb="FF0320F4"/>
         <bgColor rgb="FF346AFA"/>
       </patternFill>
     </fill>
@@ -595,8 +595,8 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="mediumGray">
-        <fgColor rgb="FF02C101"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF03C602"/>
         <bgColor rgb="FF04CB02"/>
       </patternFill>
     </fill>
@@ -619,9 +619,9 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="darkGray">
-        <fgColor rgb="FF02C101"/>
-        <bgColor rgb="FF02AB01"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF02BB01"/>
+        <bgColor rgb="FF03C602"/>
       </patternFill>
     </fill>
     <fill>
@@ -638,7 +638,7 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FF00D0D4"/>
+        <fgColor rgb="FF00CED4"/>
         <bgColor rgb="FF03B5D1"/>
       </patternFill>
     </fill>
@@ -694,12 +694,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE5E5E5"/>
         <bgColor rgb="FFEEEDF0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5C5CFF"/>
-        <bgColor rgb="FF5555FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -775,7 +769,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -848,7 +842,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1040,11 +1034,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="59" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="60" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="59" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1063,7 +1053,7 @@
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF0320F4"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
@@ -1081,7 +1071,7 @@
       <rgbColor rgb="FFEEEDF0"/>
       <rgbColor rgb="FF68217A"/>
       <rgbColor rgb="FFDA6771"/>
-      <rgbColor rgb="FF0648E3"/>
+      <rgbColor rgb="FF0985E1"/>
       <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF55FF55"/>
       <rgbColor rgb="FFCD00CD"/>
@@ -1089,9 +1079,9 @@
       <rgbColor rgb="FF54FCFC"/>
       <rgbColor rgb="FFB4009E"/>
       <rgbColor rgb="FFBB0000"/>
-      <rgbColor rgb="FF0985E1"/>
+      <rgbColor rgb="FF03C602"/>
       <rgbColor rgb="FF5555FF"/>
-      <rgbColor rgb="FF00D0D4"/>
+      <rgbColor rgb="FF00CED4"/>
       <rgbColor rgb="FF55FFFF"/>
       <rgbColor rgb="FFE5E5E5"/>
       <rgbColor rgb="FFFFF099"/>
@@ -1108,7 +1098,7 @@
       <rgbColor rgb="FF767676"/>
       <rgbColor rgb="FFA8A8A8"/>
       <rgbColor rgb="FF5454FC"/>
-      <rgbColor rgb="FF02C101"/>
+      <rgbColor rgb="FF02BB01"/>
       <rgbColor rgb="FF54FC54"/>
       <rgbColor rgb="FFCD0000"/>
       <rgbColor rgb="FFA85400"/>
@@ -1128,7 +1118,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1706,7 +1696,7 @@
       <c r="I28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J28" s="63" t="s">
+      <c r="J28" s="18" t="s">
         <v>85</v>
       </c>
       <c r="K28" s="5" t="s">
@@ -1777,7 +1767,7 @@
       <c r="K34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L34" s="64" t="s">
+      <c r="L34" s="63" t="s">
         <v>90</v>
       </c>
       <c r="M34" s="5" t="s">
@@ -1789,7 +1779,7 @@
       <c r="O34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P34" s="65" t="s">
+      <c r="P34" s="64" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1803,7 +1793,7 @@
       <c r="C35" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="66" t="s">
+      <c r="D35" s="65" t="s">
         <v>92</v>
       </c>
       <c r="E35" s="5" t="s">
@@ -1815,7 +1805,7 @@
       <c r="G35" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H35" s="67" t="s">
+      <c r="H35" s="66" t="s">
         <v>93</v>
       </c>
       <c r="I35" s="5" t="s">
